--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt16</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt16</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -540,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H2">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I2">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J2">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N2">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O2">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P2">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q2">
-        <v>0.02567685677822222</v>
+        <v>0.04007413999288889</v>
       </c>
       <c r="R2">
-        <v>0.231091711004</v>
+        <v>0.360667259936</v>
       </c>
       <c r="S2">
-        <v>0.003179264455630333</v>
+        <v>0.008823330198852505</v>
       </c>
       <c r="T2">
-        <v>0.003179264455630333</v>
+        <v>0.008823330198852505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H3">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I3">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J3">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>22.943946</v>
       </c>
       <c r="O3">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P3">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q3">
-        <v>2.450586787058667</v>
+        <v>1.018935543205333</v>
       </c>
       <c r="R3">
-        <v>22.055281083528</v>
+        <v>9.170419888848</v>
       </c>
       <c r="S3">
-        <v>0.3034274613449157</v>
+        <v>0.2243442966123075</v>
       </c>
       <c r="T3">
-        <v>0.3034274613449157</v>
+        <v>0.2243442966123075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H4">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I4">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J4">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N4">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O4">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P4">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q4">
-        <v>0.001454505291555556</v>
+        <v>0.0001197731706666667</v>
       </c>
       <c r="R4">
-        <v>0.013090547624</v>
+        <v>0.001077958536</v>
       </c>
       <c r="S4">
-        <v>0.0001800943555478671</v>
+        <v>2.637107705725046E-05</v>
       </c>
       <c r="T4">
-        <v>0.000180094355547867</v>
+        <v>2.637107705725046E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H5">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I5">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J5">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N5">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O5">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P5">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q5">
-        <v>0.6804370784493334</v>
+        <v>0.07365779096355556</v>
       </c>
       <c r="R5">
-        <v>6.123933706044</v>
+        <v>0.6629201186720001</v>
       </c>
       <c r="S5">
-        <v>0.08425055436075432</v>
+        <v>0.01621761593648249</v>
       </c>
       <c r="T5">
-        <v>0.08425055436075432</v>
+        <v>0.01621761593648248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H6">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I6">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J6">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N6">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O6">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P6">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q6">
-        <v>0.002969143236888889</v>
+        <v>0.0002012207031111111</v>
       </c>
       <c r="R6">
-        <v>0.026722289132</v>
+        <v>0.001810986328</v>
       </c>
       <c r="S6">
-        <v>0.0003676342333584341</v>
+        <v>4.43038005733785E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003676342333584341</v>
+        <v>4.430380057337851E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +859,10 @@
         <v>0.728375</v>
       </c>
       <c r="I7">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J7">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N7">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O7">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P7">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q7">
-        <v>0.01945594834722222</v>
+        <v>0.07302946727777777</v>
       </c>
       <c r="R7">
-        <v>0.175103535125</v>
+        <v>0.6572652055</v>
       </c>
       <c r="S7">
-        <v>0.002409002221929518</v>
+        <v>0.01607927466821419</v>
       </c>
       <c r="T7">
-        <v>0.002409002221929518</v>
+        <v>0.01607927466821419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +921,10 @@
         <v>0.728375</v>
       </c>
       <c r="I8">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J8">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +939,10 @@
         <v>22.943946</v>
       </c>
       <c r="O8">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P8">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q8">
         <v>1.856866296416666</v>
@@ -948,10 +951,10 @@
         <v>16.71179666775</v>
       </c>
       <c r="S8">
-        <v>0.2299140064551227</v>
+        <v>0.4088358345634332</v>
       </c>
       <c r="T8">
-        <v>0.2299140064551228</v>
+        <v>0.4088358345634332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +983,10 @@
         <v>0.728375</v>
       </c>
       <c r="I9">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J9">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N9">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O9">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P9">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q9">
-        <v>0.001102112305555556</v>
+        <v>0.0002182697083333333</v>
       </c>
       <c r="R9">
-        <v>0.00991901075</v>
+        <v>0.001964427375</v>
       </c>
       <c r="S9">
-        <v>0.0001364616592065664</v>
+        <v>4.805756803200197E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001364616592065664</v>
+        <v>4.805756803200197E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1045,10 @@
         <v>0.728375</v>
       </c>
       <c r="I10">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J10">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N10">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O10">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P10">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q10">
-        <v>0.5155829144583333</v>
+        <v>0.1342309338611111</v>
       </c>
       <c r="R10">
-        <v>4.640246230125</v>
+        <v>1.20807840475</v>
       </c>
       <c r="S10">
-        <v>0.06383859395352225</v>
+        <v>0.02955431738690036</v>
       </c>
       <c r="T10">
-        <v>0.06383859395352225</v>
+        <v>0.02955431738690035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1107,10 @@
         <v>0.728375</v>
       </c>
       <c r="I11">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J11">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N11">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O11">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P11">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q11">
-        <v>0.002249788513888889</v>
+        <v>0.0003666963472222222</v>
       </c>
       <c r="R11">
-        <v>0.020248096625</v>
+        <v>0.003300267125</v>
       </c>
       <c r="S11">
-        <v>0.0002785649628641018</v>
+        <v>8.073742704968516E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002785649628641018</v>
+        <v>8.073742704968517E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H12">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I12">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J12">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N12">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O12">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P12">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q12">
-        <v>0.01016084648655555</v>
+        <v>0.02294160493733333</v>
       </c>
       <c r="R12">
-        <v>0.09144761837899999</v>
+        <v>0.206474444436</v>
       </c>
       <c r="S12">
-        <v>0.001258098619813194</v>
+        <v>0.005051171545780803</v>
       </c>
       <c r="T12">
-        <v>0.001258098619813194</v>
+        <v>0.005051171545780803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H13">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I13">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J13">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1249,22 @@
         <v>22.943946</v>
       </c>
       <c r="O13">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P13">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q13">
-        <v>0.9697462723086667</v>
+        <v>0.5833192351219999</v>
       </c>
       <c r="R13">
-        <v>8.727716450777999</v>
+        <v>5.249873116098</v>
       </c>
       <c r="S13">
-        <v>0.1200723235386765</v>
+        <v>0.1284324061286601</v>
       </c>
       <c r="T13">
-        <v>0.1200723235386765</v>
+        <v>0.1284324061286601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H14">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I14">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J14">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N14">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O14">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P14">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q14">
-        <v>0.0005755768748888889</v>
+        <v>6.8567629E-05</v>
       </c>
       <c r="R14">
-        <v>0.005180191874</v>
+        <v>0.000617108661</v>
       </c>
       <c r="S14">
-        <v>7.126694344336833E-05</v>
+        <v>1.509688870994538E-05</v>
       </c>
       <c r="T14">
-        <v>7.126694344336833E-05</v>
+        <v>1.509688870994538E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H15">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I15">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J15">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N15">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O15">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P15">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q15">
-        <v>0.2692625798243333</v>
+        <v>0.04216754099133333</v>
       </c>
       <c r="R15">
-        <v>2.423363218419</v>
+        <v>0.3795078689219999</v>
       </c>
       <c r="S15">
-        <v>0.0333396317415647</v>
+        <v>0.00928424509936342</v>
       </c>
       <c r="T15">
-        <v>0.0333396317415647</v>
+        <v>0.009284245099363419</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H16">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I16">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J16">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N16">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O16">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P16">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q16">
-        <v>0.001174949445222222</v>
+        <v>0.0001151946336666667</v>
       </c>
       <c r="R16">
-        <v>0.010574545007</v>
+        <v>0.001036751703</v>
       </c>
       <c r="S16">
-        <v>0.0001454802291659712</v>
+        <v>2.536299693910363E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001454802291659712</v>
+        <v>2.536299693910364E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H17">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I17">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J17">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N17">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O17">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P17">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q17">
-        <v>0.01030810667977777</v>
+        <v>0.02460096678177778</v>
       </c>
       <c r="R17">
-        <v>0.09277296011799999</v>
+        <v>0.221408701036</v>
       </c>
       <c r="S17">
-        <v>0.001276332124875143</v>
+        <v>0.005416521805961268</v>
       </c>
       <c r="T17">
-        <v>0.001276332124875143</v>
+        <v>0.005416521805961268</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H18">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I18">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J18">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1559,22 @@
         <v>22.943946</v>
       </c>
       <c r="O18">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P18">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q18">
-        <v>0.9838007138973333</v>
+        <v>0.6255106024886666</v>
       </c>
       <c r="R18">
-        <v>8.854206425075999</v>
+        <v>5.629595422398</v>
       </c>
       <c r="S18">
-        <v>0.1218125204394311</v>
+        <v>0.1377218972040332</v>
       </c>
       <c r="T18">
-        <v>0.1218125204394311</v>
+        <v>0.1377218972040332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1594,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H19">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I19">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J19">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N19">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O19">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P19">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q19">
-        <v>0.0005839186564444445</v>
+        <v>7.352711233333334E-05</v>
       </c>
       <c r="R19">
-        <v>0.005255267908</v>
+        <v>0.0006617440110000001</v>
       </c>
       <c r="S19">
-        <v>7.229980855708833E-05</v>
+        <v>1.618884374811889E-05</v>
       </c>
       <c r="T19">
-        <v>7.229980855708831E-05</v>
+        <v>1.618884374811889E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H20">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I20">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J20">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N20">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O20">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P20">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q20">
-        <v>0.2731649770886667</v>
+        <v>0.04521751106911111</v>
       </c>
       <c r="R20">
-        <v>2.458484793798</v>
+        <v>0.406957599622</v>
       </c>
       <c r="S20">
-        <v>0.0338228198911659</v>
+        <v>0.009955772750303116</v>
       </c>
       <c r="T20">
-        <v>0.0338228198911659</v>
+        <v>0.009955772750303115</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H21">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I21">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J21">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N21">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O21">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P21">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q21">
-        <v>0.001191977877111111</v>
+        <v>0.0001235266392222222</v>
       </c>
       <c r="R21">
-        <v>0.010727800894</v>
+        <v>0.001111739753</v>
       </c>
       <c r="S21">
-        <v>0.0001475886604551695</v>
+        <v>2.719749759834138E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001475886604551695</v>
+        <v>2.719749759834138E-05</v>
       </c>
     </row>
   </sheetData>
